--- a/data/flats_page_5.xlsx
+++ b/data/flats_page_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,7 +611,11 @@
           <t>143 700</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/72b146f9-d00a-4df4-807d-3d2d9590eb24/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -699,7 +703,11 @@
           <t>152 700</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>https://img1.nmarket.pro/photo/pid/defcba50-73c4-4215-9723-f7e566105a58/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -787,7 +795,11 @@
           <t>152 700</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>https://img2.nmarket.pro/photo/pid/9998350f-e9db-4f96-a2d1-7225dc403429/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -875,7 +887,11 @@
           <t>152 700</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>https://img3.nmarket.pro/photo/pid/314ee40a-17f9-481c-8a9b-fc4a4fb7a9f4/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -963,7 +979,11 @@
           <t>152 700</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>https://img4.nmarket.pro/photo/pid/108b2b82-842c-487b-9b35-6802dbcf5029/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1051,7 +1071,11 @@
           <t>154 200</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>https://img5.nmarket.pro/photo/pid/bfa79053-623f-4cde-a231-41d7c6662c2c/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1139,7 +1163,11 @@
           <t>154 200</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>https://img6.nmarket.pro/photo/pid/064264d3-1e43-4f00-887d-c9382617f68f/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1227,7 +1255,11 @@
           <t>154 200</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>https://img7.nmarket.pro/photo/pid/0879861e-c59f-4b73-9bed-81dd6e42d848/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1315,7 +1347,11 @@
           <t>154 200</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/139c743c-4e10-42f3-8a2a-76845114d736/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1403,7 +1439,11 @@
           <t>154 200</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>https://img1.nmarket.pro/photo/pid/b96c640a-307a-43a9-af0f-60da49a42c08/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1491,7 +1531,11 @@
           <t>154 200</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>https://img2.nmarket.pro/photo/pid/db7976ad-41d3-4656-94ff-b46b84fdab89/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1579,7 +1623,11 @@
           <t>154 200</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>https://img3.nmarket.pro/photo/pid/bfdd28aa-6225-41e8-906b-a856beb9e122/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1667,7 +1715,11 @@
           <t>154 200</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>https://img4.nmarket.pro/photo/pid/97146f2e-612a-4953-9468-861fe4fab2da/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1755,7 +1807,11 @@
           <t>154 200</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>https://img5.nmarket.pro/photo/pid/39e2f961-e815-4988-845e-adc1b31902ce/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1843,7 +1899,11 @@
           <t>157 200</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>https://img6.nmarket.pro/photo/pid/bc0d9e08-107e-414f-bb25-289610bfb2fd/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1931,7 +1991,11 @@
           <t>160 200</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>https://img7.nmarket.pro/photo/pid/8d35ce87-4d5b-4e85-bb86-56151a326987/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2019,7 +2083,11 @@
           <t>157 200</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/eda88342-3b8e-4d9b-8403-8f73eaf270ea/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2107,7 +2175,11 @@
           <t>161 700</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>https://img1.nmarket.pro/photo/pid/4b0b5bbd-0932-4654-b19e-d8704a795f63/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2195,7 +2267,11 @@
           <t>164 700</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>https://img2.nmarket.pro/photo/pid/f734dcbb-50a8-46c1-96db-88d770092de7/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2283,7 +2359,11 @@
           <t>175 200</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>https://img3.nmarket.pro/photo/pid/b9ecfee2-3d53-4a6f-9b31-787ccc931b2f/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2371,7 +2451,11 @@
           <t>176 700</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>https://img4.nmarket.pro/photo/pid/850dda99-cc0d-49c2-b1b5-b3a563ee014c/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2459,7 +2543,11 @@
           <t>144 000</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>https://img5.nmarket.pro/photo/pid/564c4fff-166e-482b-a0d3-5fd08c0bec67/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2547,7 +2635,11 @@
           <t>147 000</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>https://img6.nmarket.pro/photo/pid/1bd81e74-0454-4b78-9302-a3dec664b950/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2635,7 +2727,11 @@
           <t>156 900</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>https://img7.nmarket.pro/photo/pid/c2c7137f-98b2-4791-a187-1e74cf4217f5/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2723,7 +2819,11 @@
           <t>161 400</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/8e1c4362-b2d5-4010-b580-e9482e642503/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2811,7 +2911,11 @@
           <t>161 400</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>https://img1.nmarket.pro/photo/pid/8298e9f2-6928-48ae-b2d4-a3d23da5ae73/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2821,17 +2925,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>24,63</t>
+          <t>25,90</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>9,73</t>
+          <t>11,10</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>5,20</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2851,22 +2955,22 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>12/20</t>
+          <t>2/23</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>249</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Balance 2 оч. корп. 2</t>
+          <t>Citatum</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Скандиа</t>
+          <t>VIRA</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2876,7 +2980,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>4 кв. 2025</t>
+          <t>3 кв. 2026</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2886,7 +2990,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>211 125</t>
+          <t>200 772</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2896,10 +3000,14 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>145 600</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr"/>
+          <t>182 000</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>https://img2.nmarket.pro/photo/pid/b38fd68e-3909-4547-a346-f2ef391c4c7b/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2909,17 +3017,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>24,63</t>
+          <t>25,90</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>9,73</t>
+          <t>11,10</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>5,20</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2939,22 +3047,22 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>12/20</t>
+          <t>4/23</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>267</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Balance 2 оч. корп. 2</t>
+          <t>Citatum</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Скандиа</t>
+          <t>VIRA</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2964,30 +3072,34 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>4 кв. 2025</t>
+          <t>3 кв. 2026</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>5 200 000</t>
+          <t>5 400 000</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>211 125</t>
+          <t>208 494</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>5 200 000</t>
+          <t>5 400 000</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>145 600</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr"/>
+          <t>189 000</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>https://img3.nmarket.pro/photo/pid/c5a768c4-c5c9-48d9-af89-8b555e94d169/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2997,17 +3109,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>24,63</t>
+          <t>25,90</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>9,73</t>
+          <t>11,10</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>5,20</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3027,22 +3139,22 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>17/20</t>
+          <t>13/23</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>348</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Balance 2 оч. корп. 2</t>
+          <t>Citatum</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Скандиа</t>
+          <t>VIRA</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -3052,30 +3164,34 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>4 кв. 2025</t>
+          <t>3 кв. 2026</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>5 300 000</t>
+          <t>5 450 000</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>215 185</t>
+          <t>210 425</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>5 300 000</t>
+          <t>5 450 000</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>148 400</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr"/>
+          <t>190 750</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>https://img4.nmarket.pro/photo/pid/39f86f6e-1bf0-4b7e-92a5-0136354d6935/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3085,17 +3201,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>24,63</t>
+          <t>25,90</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>9,73</t>
+          <t>11,10</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>5,20</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3115,22 +3231,22 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>15/20</t>
+          <t>11/23</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>330</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Balance 2 оч. корп. 2</t>
+          <t>Citatum</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Скандиа</t>
+          <t>VIRA</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -3140,30 +3256,5554 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>4 кв. 2025</t>
+          <t>3 кв. 2026</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>5 400 000</t>
+          <t>5 450 000</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>219 245</t>
+          <t>210 425</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>5 400 000</t>
+          <t>5 450 000</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>151 200</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr"/>
+          <t>190 750</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>https://img5.nmarket.pro/photo/pid/80f4b62e-8002-429d-b8d6-0372e697bc72/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>25,90</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>11,10</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>12/23</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Citatum</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>VIRA</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>3 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>5 450 000</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>210 425</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>5 450 000</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>190 750</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>https://img6.nmarket.pro/photo/pid/f448d6f5-690f-4bdf-8ed7-22c2f32a52ea/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>25,90</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>11,10</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>8/23</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Citatum</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>VIRA</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>3 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>5 450 000</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>210 425</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>5 450 000</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>190 750</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>https://img7.nmarket.pro/photo/pid/03fdbbcd-e3d2-4e42-b691-ba77c03acc3f/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>25,90</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>11,10</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>15/23</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Citatum</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>VIRA</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>3 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>5 500 000</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>212 355</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>5 500 000</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>192 500</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/2dec7e64-5106-4aea-aa43-2af2103cbfee/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>25,90</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>11,10</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>14/23</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Citatum</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>VIRA</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>3 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>5 500 000</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>212 355</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>5 500 000</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>192 500</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>https://img1.nmarket.pro/photo/pid/4ad5f65b-655b-4b14-9310-e836f7481c2c/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>25,90</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>11,10</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>18/23</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Citatum</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>VIRA</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>3 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>5 500 000</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>212 355</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>5 500 000</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>192 500</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>https://img2.nmarket.pro/photo/pid/ef827acb-0c54-4c39-9476-c35a97562629/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>25,90</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>11,10</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>17/23</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Citatum</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>VIRA</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>3 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>5 500 000</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>212 355</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>5 500 000</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>192 500</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>https://img3.nmarket.pro/photo/pid/5ea13305-6865-4f4d-9a38-97fb56a6611d/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>25,90</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>11,10</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>19/23</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Citatum</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>VIRA</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>3 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>5 550 000</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>214 286</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>5 550 000</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>194 250</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>https://img4.nmarket.pro/photo/pid/9f6b519c-dd86-431e-b3f3-6f5b09be076a/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>25,90</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>11,10</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>20/23</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Citatum</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>VIRA</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>3 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>5 550 000</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>214 286</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>5 550 000</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>194 250</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>https://img5.nmarket.pro/photo/pid/7d6e65a4-51e7-4633-9e9a-24ecaac3adbb/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>25,90</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>11,10</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>21/23</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Citatum</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>VIRA</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>3 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>5 600 000</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>216 216</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>5 600 000</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>196 000</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>https://img6.nmarket.pro/photo/pid/f4fcd21b-03cc-49bc-8367-2e2e2954720d/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>25,90</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>11,10</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>П/Кл</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>10/23</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Citatum</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>VIRA</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>3 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>6 100 000</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>235 521</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>6 100 000</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>213 500</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>https://img7.nmarket.pro/photo/pid/2958e839-cbc9-4b16-8fc7-1798fa334cfb/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>25,90</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>11,10</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>П/Кл</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>14/23</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Citatum</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>VIRA</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>3 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>6 100 000</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>235 521</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>6 100 000</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>213 500</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/f369714f-40f2-4274-b4c1-37f83dcf4c70/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>25,90</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>11,10</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>П/Кл</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>11/23</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Citatum</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>VIRA</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>3 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>6 100 000</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>235 521</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>6 100 000</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>213 500</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>https://img1.nmarket.pro/photo/pid/efa33a61-7866-4d70-820a-b10f0db5d13e/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>25,90</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>11,10</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>П/Кл</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>13/23</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Citatum</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>VIRA</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>3 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>6 100 000</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>235 521</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>6 100 000</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>213 500</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>https://img2.nmarket.pro/photo/pid/b76f5d1a-019e-44f1-b020-79d0f4afa1cc/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>25,90</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>11,10</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>П/Кл</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>9/23</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Citatum</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>VIRA</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>3 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>6 100 000</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>235 521</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>6 100 000</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>213 500</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>https://img3.nmarket.pro/photo/pid/732f5cf8-51f7-4e44-9246-4478a1c361d8/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>25,90</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>11,10</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>П/Кл</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>18/23</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Citatum</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>VIRA</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>3 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>6 150 000</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>237 452</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>6 150 000</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>215 250</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>https://img4.nmarket.pro/photo/pid/108233f4-c67d-4973-9d2e-8e384cdabf58/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>25,90</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>11,10</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>П/Кл</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>19/23</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Citatum</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>VIRA</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>3 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>6 150 000</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>237 452</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>6 150 000</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>215 250</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>https://img5.nmarket.pro/photo/pid/8b22ebf4-c0c5-4a76-88d5-ad8a46d6ed5b/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>25,90</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>11,10</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>П/Кл</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>17/23</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Citatum</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>VIRA</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>3 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>6 150 000</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>237 452</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>6 150 000</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>215 250</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>https://img6.nmarket.pro/photo/pid/d2f2cdab-2040-4fea-b298-45ba872114c1/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>25,90</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>11,10</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>П/Кл</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>20/23</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Citatum</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>VIRA</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>3 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>6 200 000</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>239 382</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>6 200 000</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>217 000</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>https://img7.nmarket.pro/photo/pid/da1b67a5-c265-4165-a98d-bf84acc7fd71/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>25,90</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>11,10</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>П/Кл</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>21/23</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Citatum</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>VIRA</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>3 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>6 200 000</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>239 382</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>6 200 000</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>217 000</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/77b3746f-2e67-4529-8a67-5ee293f89d2b/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>27,90</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>12,40</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5,30</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>4/30</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>CITY TOWERS</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>SG Development</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Дзержинский р-н</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>4 кв. 2027</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>6 950 000</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>249 104</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>6 950 000</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>208 500</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>https://img1.nmarket.pro/photo/pid/836fdcd5-bde3-4827-8cd9-110a49b0c2e0/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>27,90</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>12,40</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5,30</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>5/30</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>CITY TOWERS</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>SG Development</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Дзержинский р-н</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>4 кв. 2027</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>6 980 000</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>250 179</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>6 980 000</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>209 400</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>https://img2.nmarket.pro/photo/pid/67f1076b-a3bc-437f-b271-c8686104bd4e/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>27,90</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>12,40</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5,30</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>6/30</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>CITY TOWERS</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>SG Development</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Дзержинский р-н</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>4 кв. 2027</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>7 010 000</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>251 254</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>7 010 000</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>210 300</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>https://img3.nmarket.pro/photo/pid/8937af4d-35be-42f7-9996-42ac42606038/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>27,90</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>12,40</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5,30</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>8/30</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>CITY TOWERS</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>SG Development</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Дзержинский р-н</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>4 кв. 2027</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>7 070 000</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>253 405</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>7 070 000</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>212 100</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>https://img4.nmarket.pro/photo/pid/076d0b94-2d60-4188-af49-03d36fb9ccfe/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>27,90</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>12,40</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5,30</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>11/30</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>CITY TOWERS</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>SG Development</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Дзержинский р-н</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>4 кв. 2027</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>7 160 000</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>256 631</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>7 160 000</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>214 800</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>https://img5.nmarket.pro/photo/pid/333dc44a-45df-481d-a4b1-152e53936c2b/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>29,70</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>12,10</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>4/30</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>CITY TOWERS</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>SG Development</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Дзержинский р-н</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>4 кв. 2027</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>7 250 000</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>244 108</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>7 250 000</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>217 500</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>https://img6.nmarket.pro/photo/pid/27fea16e-4f46-4abc-b3cb-a5f97daf4dff/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>29,70</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>12,10</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>5/30</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>CITY TOWERS</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>SG Development</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Дзержинский р-н</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>4 кв. 2027</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>7 270 000</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>244 781</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>7 270 000</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>218 100</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>https://img7.nmarket.pro/photo/pid/06ef0e35-80f8-430a-9af6-43c0e8add72a/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>29,70</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>12,10</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>6/30</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>CITY TOWERS</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>SG Development</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Дзержинский р-н</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>4 кв. 2027</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>7 290 000</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>245 455</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>7 290 000</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>218 700</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/ddbdd8dc-566e-4c34-bd2a-dced3d935cd3/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>29,60</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>12,10</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>7/30</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>CITY TOWERS</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>SG Development</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Дзержинский р-н</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>4 кв. 2027</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>7 310 000</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>246 959</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>7 310 000</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>219 300</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>https://img1.nmarket.pro/photo/pid/ea84393b-b085-4923-9c84-6b779cb4a114/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>29,60</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>12,10</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>11/30</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>CITY TOWERS</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>SG Development</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Дзержинский р-н</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>4 кв. 2027</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>7 430 000</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>251 014</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>7 430 000</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>222 900</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>https://img2.nmarket.pro/photo/pid/07afd784-92ef-4e94-ba2c-5f7596b0077c/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>40,90</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>21,70</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5,40</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>4/30</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>CITY TOWERS</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>SG Development</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Дзержинский р-н</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>4 кв. 2027</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>8 960 000</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>219 071</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>8 960 000</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>268 800</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>https://img3.nmarket.pro/photo/pid/ec415fef-f147-4d98-8961-0cf13ef186e9/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>27,41</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>14,22</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5,88</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>8/24</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>6 450 000</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>235 316</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>6 450 000</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>193 500</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>https://img2.nmarket.pro/photo/pid/b00f256a-8d45-40aa-8a32-95ad386690a2/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>27,41</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>14,22</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5,88</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>9/24</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>6 450 000</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>235 316</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>6 450 000</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>193 500</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>https://img3.nmarket.pro/photo/pid/f6b4e683-643c-4e44-ac6a-c42c25ca95dd/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>27,41</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>14,22</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5,88</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>10/24</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>6 450 000</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>235 316</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>6 450 000</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>193 500</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>https://img4.nmarket.pro/photo/pid/9331f0f2-f6fe-445b-9c8b-1085077e74c1/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>29,03</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>15,01</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6,28</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>9/24</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>6 500 000</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>223 906</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>6 500 000</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>195 000</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>https://img5.nmarket.pro/photo/pid/69561d2e-98e6-4f24-8a7f-9135fe6f5520/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>27,41</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>14,22</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5,88</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>15/24</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>6 500 000</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>237 140</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>6 500 000</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>195 000</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>https://img6.nmarket.pro/photo/pid/9b229311-8225-4f16-8533-a10fe87f8e71/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>27,41</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>14,22</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5,88</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>6 500 000</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>237 140</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>6 500 000</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>195 000</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>https://img7.nmarket.pro/photo/pid/557f829c-6539-4b08-847f-533ff43f278c/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>27,41</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>14,22</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5,88</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>17/24</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>6 500 000</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>237 140</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>6 500 000</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>195 000</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/33e8470f-d0c1-4048-abc3-ef9ac8804ecd/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>27,41</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>14,22</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5,88</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>19/24</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>6 500 000</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>237 140</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>6 500 000</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>195 000</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>https://img1.nmarket.pro/photo/pid/5fec5744-db16-4cf9-a584-2a99bc238e44/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>27,41</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>14,22</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5,88</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>20/24</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>6 550 000</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>238 964</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>6 550 000</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>196 500</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>https://img2.nmarket.pro/photo/pid/b7b942b6-532e-4091-9590-4a7331b05103/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>27,41</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>14,22</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5,88</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>23/24</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>6 550 000</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>238 964</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>6 550 000</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>196 500</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>https://img3.nmarket.pro/photo/pid/812e0479-d3eb-4f70-bd81-7660a2ef7769/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>29,03</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>15,01</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6,28</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>15/24</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>6 600 000</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>227 351</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>6 600 000</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>198 000</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>https://img4.nmarket.pro/photo/pid/35279cdb-f174-4232-a133-aabdabf8c8fc/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>29,03</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>15,01</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6,28</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>17/24</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>6 600 000</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>227 351</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>6 600 000</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>198 000</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>https://img5.nmarket.pro/photo/pid/07a0db29-ecc8-473f-af58-66211e818b15/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>29,03</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>15,01</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6,28</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>18/24</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>6 600 000</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>227 351</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>6 600 000</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>198 000</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>https://img6.nmarket.pro/photo/pid/eee39365-7f7d-4969-84a3-605fc9ea5a96/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>29,03</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>15,01</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6,28</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>20/24</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>6 600 000</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>227 351</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>6 600 000</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>198 000</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>https://img7.nmarket.pro/photo/pid/56fdb77a-51a2-4e8c-935d-4d9898347f0c/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>38,76</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>15,67</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>11,92</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2/24</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>7 500 000</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>193 498</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>7 500 000</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>225 000</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/bd7b3fc7-ccd9-48b9-9f72-991f4a94f39d/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>38,79</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>15,67</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>11,95</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>7 900 000</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>203 661</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>7 900 000</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>237 000</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>https://img1.nmarket.pro/photo/pid/5934801d-f6f6-4af9-8bf8-d3cfd22a2763/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>38,79</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>15,67</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>11,95</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>20/24</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>8 000 000</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>206 239</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>8 000 000</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>240 000</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>https://img2.nmarket.pro/photo/pid/9a4ad12a-2e1c-4ae5-99ae-752393318b23/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>38,79</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>15,67</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>11,95</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>21/24</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>8 000 000</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>206 239</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>8 000 000</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>240 000</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>https://img3.nmarket.pro/photo/pid/19b77eba-ccca-4342-960b-0930965c42f6/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>44,08</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>23,93</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7,09</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>19/24</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>8 500 000</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>192 831</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>8 500 000</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>255 000</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>https://img4.nmarket.pro/photo/pid/dbded4b5-f57d-44df-80e2-b68c458b851c/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>44,08</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>23,93</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>7,09</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>20/24</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>8 650 000</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>196 234</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>8 650 000</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>259 500</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>https://img5.nmarket.pro/photo/pid/dac9da4a-64e8-4fdf-b382-211ae8c88473/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>44,08</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>23,93</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7,09</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>22/24</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>8 650 000</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>196 234</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>8 650 000</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>259 500</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>https://img6.nmarket.pro/photo/pid/81efe89b-9b95-416e-91ca-8cf4929fcc30/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>45,89</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>27,25</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5,13</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>18/24</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>8 800 000</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>191 763</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>8 800 000</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>264 000</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>https://img7.nmarket.pro/photo/pid/5477335e-665d-42b4-93cd-85bd2acc6006/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>48,62</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>28,78</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5,13</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2/24</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>8 800 000</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>180 995</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>8 800 000</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>264 000</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/349590a2-7dbc-496b-9aeb-264e7b949e03/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>48,28</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>28,78</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5,13</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>6/24</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>8 900 000</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>184 341</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>8 900 000</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>267 000</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>https://img1.nmarket.pro/photo/pid/2bd0fc41-5380-4dc1-a02f-4627124bfeda/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>45,89</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>27,25</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5,13</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>20/24</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>8 900 000</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>193 942</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>8 900 000</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>267 000</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>https://img2.nmarket.pro/photo/pid/a9955c1f-404c-4835-aafd-e003940463c9/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>45,89</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>27,25</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5,13</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>22/24</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>9 000 000</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>196 121</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>9 000 000</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>270 000</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>https://img3.nmarket.pro/photo/pid/dbec1d61-bee8-405e-89e8-4d6f6652e666/?type=png&amp;v=2&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>48,28</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>28,78</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5,13</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>9 100 000</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>188 484</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>9 100 000</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>273 000</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>https://img4.nmarket.pro/photo/pid/47c014b1-f2a8-4ab2-bf5a-0930e71007c7/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>48,28</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>28,78</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5,13</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>18/24</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>9 200 000</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>190 555</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>9 200 000</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>276 000</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>https://img5.nmarket.pro/photo/pid/e1542c44-5250-42f8-bf0b-05b18fc755e1/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>48,28</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>28,78</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5,13</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>21/24</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>9 300 000</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>192 626</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>9 300 000</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>279 000</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>https://img6.nmarket.pro/photo/pid/593700a3-2b68-443c-b335-e2e71219557c/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>СТ</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>48,28</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>28,78</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5,13</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>П/Чист</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>23/24</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>For Stars</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Редфилд</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Октябрьский р-н</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>9 300 000</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>192 626</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>9 300 000</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>279 000</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>https://img7.nmarket.pro/photo/pid/96c1687a-3cc1-4b3f-97fb-003a8d3db39b/?type=png&amp;v=1&amp;wpsid=52</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
